--- a/players_stats/Anthony Johnson.xlsx
+++ b/players_stats/Anthony Johnson.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,55 +429,115 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>3P</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>3PA</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>3P%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2P</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2PA</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2P%</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>eFG%</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>FTA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>FT%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ORB</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>DRB</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>TRB</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>AST</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>TOV</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>PTS</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Height</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>ShootingHand</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>draftRank</t>
         </is>
@@ -492,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1958-59</t>
+          <t>1997-98</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PHW</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -510,62 +570,102 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>67</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="I2" t="n">
+        <v>62</v>
+      </c>
       <c r="J2" t="n">
-        <v>1158</v>
+        <v>2266</v>
       </c>
       <c r="K2" t="n">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="L2" t="n">
-        <v>466</v>
+        <v>609</v>
       </c>
       <c r="M2" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="N2" t="n">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>191</v>
+        <v>128</v>
       </c>
       <c r="P2" t="n">
-        <v>0.602</v>
+        <v>0.328</v>
       </c>
       <c r="Q2" t="n">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="R2" t="n">
-        <v>90</v>
+        <v>481</v>
       </c>
       <c r="S2" t="n">
-        <v>176</v>
+        <v>0.383</v>
       </c>
       <c r="T2" t="n">
-        <v>463</v>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 97 </t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+        <v>0.406</v>
+      </c>
+      <c r="U2" t="n">
+        <v>80</v>
+      </c>
+      <c r="V2" t="n">
+        <v>110</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="X2" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>171</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>329</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>188</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>574</v>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -576,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1959-60</t>
+          <t>1998-99</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PHW</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -594,62 +694,102 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>49</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>885</v>
+      </c>
+      <c r="K3" t="n">
+        <v>91</v>
+      </c>
+      <c r="L3" t="n">
+        <v>225</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>19</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>86</v>
+      </c>
+      <c r="R3" t="n">
+        <v>206</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="U3" t="n">
+        <v>57</v>
+      </c>
+      <c r="V3" t="n">
+        <v>82</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="X3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>59</v>
+      </c>
+      <c r="Z3" t="n">
         <v>75</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>1421</v>
-      </c>
-      <c r="K3" t="n">
-        <v>245</v>
-      </c>
-      <c r="L3" t="n">
-        <v>648</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.3779999999999999</v>
-      </c>
-      <c r="N3" t="n">
-        <v>125</v>
-      </c>
-      <c r="O3" t="n">
-        <v>208</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>282</v>
-      </c>
-      <c r="R3" t="n">
-        <v>152</v>
-      </c>
-      <c r="S3" t="n">
-        <v>196</v>
-      </c>
-      <c r="T3" t="n">
-        <v>615</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 97 </t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
+      <c r="AA3" t="n">
+        <v>107</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>244</v>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -660,80 +800,120 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1960-61</t>
+          <t>1999-00</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>56</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>637</v>
+      </c>
+      <c r="K4" t="n">
+        <v>62</v>
+      </c>
+      <c r="L4" t="n">
+        <v>164</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3779999999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>60</v>
+      </c>
+      <c r="R4" t="n">
+        <v>153</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="U4" t="n">
         <v>28</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>PHW</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>79</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>299</v>
-      </c>
-      <c r="L4" t="n">
-        <v>834</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>157</v>
-      </c>
-      <c r="O4" t="n">
-        <v>275</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.5710000000000001</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>345</v>
-      </c>
-      <c r="R4" t="n">
-        <v>205</v>
-      </c>
-      <c r="S4" t="n">
-        <v>249</v>
-      </c>
-      <c r="T4" t="n">
-        <v>755</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 97 </t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
+      <c r="V4" t="n">
+        <v>39</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>72</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>58</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>154</v>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr"/>
+      <c r="AJ4" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -744,15 +924,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1961-62</t>
+          <t>1999-00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CHP</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -762,62 +942,102 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>71</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
       <c r="J5" t="n">
-        <v>2193</v>
+        <v>423</v>
       </c>
       <c r="K5" t="n">
-        <v>365</v>
+        <v>36</v>
       </c>
       <c r="L5" t="n">
-        <v>814</v>
+        <v>103</v>
       </c>
       <c r="M5" t="n">
-        <v>0.448</v>
+        <v>0.35</v>
       </c>
       <c r="N5" t="n">
-        <v>284</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>452</v>
+        <v>6</v>
       </c>
       <c r="P5" t="n">
-        <v>0.628</v>
+        <v>0.167</v>
       </c>
       <c r="Q5" t="n">
-        <v>351</v>
+        <v>35</v>
       </c>
       <c r="R5" t="n">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c r="S5" t="n">
-        <v>247</v>
+        <v>0.361</v>
       </c>
       <c r="T5" t="n">
-        <v>1014</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 97 </t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
+        <v>0.354</v>
+      </c>
+      <c r="U5" t="n">
+        <v>19</v>
+      </c>
+      <c r="V5" t="n">
+        <v>24</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>92</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -828,74 +1048,2222 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>1999-00</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>25</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>18</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>214</v>
+      </c>
+      <c r="K6" t="n">
+        <v>26</v>
+      </c>
+      <c r="L6" t="n">
+        <v>61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>56</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>15</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>62</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>26</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>53</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>511</v>
+      </c>
+      <c r="K7" t="n">
+        <v>53</v>
+      </c>
+      <c r="L7" t="n">
+        <v>152</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>52</v>
+      </c>
+      <c r="R7" t="n">
+        <v>147</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="U7" t="n">
+        <v>23</v>
+      </c>
+      <c r="V7" t="n">
+        <v>33</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.6970000000000001</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>78</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>62</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ7" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>26</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>279</v>
+      </c>
+      <c r="K8" t="n">
+        <v>26</v>
+      </c>
+      <c r="L8" t="n">
+        <v>71</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>26</v>
+      </c>
+      <c r="R8" t="n">
+        <v>68</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="U8" t="n">
+        <v>12</v>
+      </c>
+      <c r="V8" t="n">
+        <v>17</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>64</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>26</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>28</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>232</v>
+      </c>
+      <c r="K9" t="n">
+        <v>27</v>
+      </c>
+      <c r="L9" t="n">
+        <v>81</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>26</v>
+      </c>
+      <c r="R9" t="n">
+        <v>79</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="U9" t="n">
+        <v>11</v>
+      </c>
+      <c r="V9" t="n">
+        <v>16</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>66</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ9" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>27</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NJN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>34</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>366</v>
+      </c>
+      <c r="K10" t="n">
+        <v>37</v>
+      </c>
+      <c r="L10" t="n">
+        <v>90</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>12</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>33</v>
+      </c>
+      <c r="R10" t="n">
+        <v>78</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="U10" t="n">
+        <v>16</v>
+      </c>
+      <c r="V10" t="n">
+        <v>25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>31</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>94</v>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ10" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>28</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NJN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>66</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>842</v>
+      </c>
+      <c r="K11" t="n">
+        <v>103</v>
+      </c>
+      <c r="L11" t="n">
+        <v>231</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>35</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>90</v>
+      </c>
+      <c r="R11" t="n">
+        <v>196</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="U11" t="n">
+        <v>51</v>
+      </c>
+      <c r="V11" t="n">
+        <v>74</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.6890000000000001</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>86</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>93</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>270</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ11" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>29</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>73</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1598</v>
+      </c>
+      <c r="K12" t="n">
+        <v>167</v>
+      </c>
+      <c r="L12" t="n">
+        <v>411</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="N12" t="n">
+        <v>41</v>
+      </c>
+      <c r="O12" t="n">
+        <v>122</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>126</v>
+      </c>
+      <c r="R12" t="n">
+        <v>289</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="U12" t="n">
+        <v>75</v>
+      </c>
+      <c r="V12" t="n">
+        <v>94</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.7979999999999999</v>
+      </c>
+      <c r="X12" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>102</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>202</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>64</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>138</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>450</v>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ12" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>30</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>63</v>
+      </c>
+      <c r="I13" t="n">
+        <v>36</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1747</v>
+      </c>
+      <c r="K13" t="n">
+        <v>203</v>
+      </c>
+      <c r="L13" t="n">
+        <v>456</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="N13" t="n">
+        <v>41</v>
+      </c>
+      <c r="O13" t="n">
+        <v>108</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>162</v>
+      </c>
+      <c r="R13" t="n">
+        <v>348</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="U13" t="n">
+        <v>85</v>
+      </c>
+      <c r="V13" t="n">
+        <v>113</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="X13" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>147</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>179</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>302</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>96</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>144</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>532</v>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ13" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2005-06</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>31</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>53</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1981</v>
+      </c>
+      <c r="K14" t="n">
+        <v>267</v>
+      </c>
+      <c r="L14" t="n">
+        <v>603</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4429999999999999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>51</v>
+      </c>
+      <c r="O14" t="n">
+        <v>155</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>216</v>
+      </c>
+      <c r="R14" t="n">
+        <v>448</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="U14" t="n">
+        <v>106</v>
+      </c>
+      <c r="V14" t="n">
+        <v>141</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="X14" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>137</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>168</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>324</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>63</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>115</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>132</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>691</v>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ14" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>32</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>67</v>
+      </c>
+      <c r="I15" t="n">
+        <v>17</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1301</v>
+      </c>
+      <c r="K15" t="n">
+        <v>142</v>
+      </c>
+      <c r="L15" t="n">
+        <v>343</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="N15" t="n">
+        <v>25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>73</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>117</v>
+      </c>
+      <c r="R15" t="n">
+        <v>270</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="U15" t="n">
+        <v>46</v>
+      </c>
+      <c r="V15" t="n">
+        <v>61</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="X15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>76</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>119</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>355</v>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ15" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>32</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>40</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>562</v>
+      </c>
+      <c r="K16" t="n">
+        <v>60</v>
+      </c>
+      <c r="L16" t="n">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>49</v>
+      </c>
+      <c r="R16" t="n">
+        <v>117</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="U16" t="n">
+        <v>21</v>
+      </c>
+      <c r="V16" t="n">
+        <v>29</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.7240000000000001</v>
+      </c>
+      <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>31</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>68</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>152</v>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ16" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>32</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>27</v>
+      </c>
+      <c r="I17" t="n">
+        <v>17</v>
+      </c>
+      <c r="J17" t="n">
+        <v>739</v>
+      </c>
+      <c r="K17" t="n">
+        <v>82</v>
+      </c>
+      <c r="L17" t="n">
+        <v>197</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="N17" t="n">
+        <v>14</v>
+      </c>
+      <c r="O17" t="n">
+        <v>44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>68</v>
+      </c>
+      <c r="R17" t="n">
+        <v>153</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="U17" t="n">
+        <v>25</v>
+      </c>
+      <c r="V17" t="n">
+        <v>32</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.7809999999999999</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>123</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>203</v>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ17" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>33</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>69</v>
+      </c>
+      <c r="I18" t="n">
+        <v>52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1531</v>
+      </c>
+      <c r="K18" t="n">
+        <v>155</v>
+      </c>
+      <c r="L18" t="n">
+        <v>355</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>42</v>
+      </c>
+      <c r="O18" t="n">
+        <v>93</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>113</v>
+      </c>
+      <c r="R18" t="n">
+        <v>262</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="U18" t="n">
+        <v>35</v>
+      </c>
+      <c r="V18" t="n">
+        <v>43</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.8140000000000001</v>
+      </c>
+      <c r="X18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>115</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>137</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>262</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>52</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>84</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>115</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>387</v>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ18" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>33</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>42</v>
+      </c>
+      <c r="I19" t="n">
+        <v>41</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1121</v>
+      </c>
+      <c r="K19" t="n">
+        <v>115</v>
+      </c>
+      <c r="L19" t="n">
+        <v>267</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="N19" t="n">
+        <v>27</v>
+      </c>
+      <c r="O19" t="n">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>88</v>
+      </c>
+      <c r="R19" t="n">
+        <v>204</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="U19" t="n">
+        <v>26</v>
+      </c>
+      <c r="V19" t="n">
+        <v>32</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>98</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>202</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>86</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>283</v>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ19" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2007-08</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>33</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>27</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11</v>
+      </c>
+      <c r="J20" t="n">
+        <v>410</v>
+      </c>
+      <c r="K20" t="n">
+        <v>40</v>
+      </c>
+      <c r="L20" t="n">
+        <v>88</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>30</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>58</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="U20" t="n">
+        <v>9</v>
+      </c>
+      <c r="V20" t="n">
+        <v>11</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="X20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>104</v>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ20" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2008-09</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>34</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>80</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1481</v>
+      </c>
+      <c r="K21" t="n">
+        <v>154</v>
+      </c>
+      <c r="L21" t="n">
+        <v>381</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="N21" t="n">
+        <v>52</v>
+      </c>
+      <c r="O21" t="n">
+        <v>133</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>102</v>
+      </c>
+      <c r="R21" t="n">
+        <v>248</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="U21" t="n">
+        <v>61</v>
+      </c>
+      <c r="V21" t="n">
+        <v>81</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="X21" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>118</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>147</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>111</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>421</v>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ21" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2009-10</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>35</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>31</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>406</v>
+      </c>
+      <c r="K22" t="n">
+        <v>49</v>
+      </c>
+      <c r="L22" t="n">
+        <v>111</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13</v>
+      </c>
+      <c r="O22" t="n">
+        <v>39</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>36</v>
+      </c>
+      <c r="R22" t="n">
+        <v>72</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U22" t="n">
+        <v>19</v>
+      </c>
+      <c r="V22" t="n">
+        <v>20</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ22" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>292</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>6772</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1083</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2762</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="N6" t="n">
-        <v>681</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1126</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.605</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1190</v>
-      </c>
-      <c r="R6" t="n">
-        <v>675</v>
-      </c>
-      <c r="S6" t="n">
-        <v>868</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2847</v>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 196</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 97 </t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>793</v>
+      </c>
+      <c r="I23" t="n">
+        <v>249</v>
+      </c>
+      <c r="J23" t="n">
+        <v>15552</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1709</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4131</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="N23" t="n">
+        <v>332</v>
+      </c>
+      <c r="O23" t="n">
+        <v>933</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1377</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3198</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="U23" t="n">
+        <v>682</v>
+      </c>
+      <c r="V23" t="n">
+        <v>916</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="X23" t="n">
+        <v>293</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1065</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1358</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2274</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>551</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>92</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>866</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1289</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>4432</v>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 190</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 86 </t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
